--- a/inputs/primary-results/raw/SENATE Results.xlsx
+++ b/inputs/primary-results/raw/SENATE Results.xlsx
@@ -66,10 +66,10 @@
     <x:t>State of Montana</x:t>
   </x:si>
   <x:si>
-    <x:t>Precincts 193 of 307 Reporting (Precincts Partially Reported: 100/307)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Downloaded at 6/8/2022 9:59:42 AM</x:t>
+    <x:t>Precincts 307 of 307 Reporting (Precincts Partially Reported: 0/307)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Downloaded at 7/19/2022 9:10:47 AM</x:t>
   </x:si>
   <x:si>
     <x:t>STATE SENATOR DISTRICT 1</x:t>
@@ -846,7 +846,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.720625" style="0" customWidth="1"/>
   </x:cols>
@@ -887,7 +887,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3973</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -895,7 +895,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3973</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -918,7 +918,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.910625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="17.370625" style="0" customWidth="1"/>
@@ -963,10 +963,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1462</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -974,10 +974,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1462</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1000,7 +1000,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.120625" style="0" customWidth="1"/>
   </x:cols>
@@ -1072,7 +1072,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.470625" style="0" customWidth="1"/>
   </x:cols>
@@ -1113,7 +1113,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1684</x:v>
+        <x:v>1688</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1121,7 +1121,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1684</x:v>
+        <x:v>1688</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1144,7 +1144,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.240625" style="0" customWidth="1"/>
   </x:cols>
@@ -1185,7 +1185,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>953</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1193,7 +1193,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>953</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1216,7 +1216,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.110625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.940625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="17.660625" style="0" customWidth="1"/>
@@ -1283,10 +1283,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>733</x:v>
+        <x:v>863</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -1305,10 +1305,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>1946</x:v>
+        <x:v>2049</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1632</x:v>
+        <x:v>1762</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1331,7 +1331,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="10.110625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.920625" style="0" customWidth="1"/>
   </x:cols>
@@ -1388,7 +1388,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1404,7 +1404,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>982</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1427,7 +1427,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.610625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="12.580625" style="0" customWidth="1"/>
   </x:cols>
@@ -1468,7 +1468,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1476,7 +1476,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1494</x:v>
+        <x:v>2841</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1524,7 +1524,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>3589</x:v>
+        <x:v>4940</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1547,7 +1547,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.610625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.750625" style="0" customWidth="1"/>
   </x:cols>
@@ -1596,7 +1596,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>580</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1620,7 +1620,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1644,7 +1644,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>875</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1667,7 +1667,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.210625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.840625" style="0" customWidth="1"/>
   </x:cols>
@@ -1716,7 +1716,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2077</x:v>
+        <x:v>2081</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1764,7 +1764,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>4620</x:v>
+        <x:v>4624</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1787,7 +1787,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.820625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="18.690625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.730625" style="0" customWidth="1"/>
@@ -1857,7 +1857,7 @@
         <x:v>658</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -1876,10 +1876,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>765</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>1482</x:v>
+        <x:v>1583</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -1887,10 +1887,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2144</x:v>
+        <x:v>2178</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>3314</x:v>
+        <x:v>3417</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1913,7 +1913,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.260625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.390625" style="0" customWidth="1"/>
@@ -1958,10 +1958,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2044</x:v>
+        <x:v>2082</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1569</x:v>
+        <x:v>1590</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -1969,10 +1969,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2044</x:v>
+        <x:v>2082</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1569</x:v>
+        <x:v>1590</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1995,7 +1995,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.390625" style="0" customWidth="1"/>
   </x:cols>
@@ -2036,7 +2036,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3082</x:v>
+        <x:v>3279</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2044,7 +2044,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3082</x:v>
+        <x:v>3279</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2067,7 +2067,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.160625" style="0" customWidth="1"/>
   </x:cols>
@@ -2108,7 +2108,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1294</x:v>
+        <x:v>1376</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2116,7 +2116,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1294</x:v>
+        <x:v>1376</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2139,7 +2139,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.380625" style="0" customWidth="1"/>
   </x:cols>
@@ -2180,7 +2180,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2058</x:v>
+        <x:v>2167</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2188,7 +2188,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2058</x:v>
+        <x:v>2167</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2211,7 +2211,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.200625" style="0" customWidth="1"/>
   </x:cols>
@@ -2252,7 +2252,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2137</x:v>
+        <x:v>2243</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2260,7 +2260,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2137</x:v>
+        <x:v>2243</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2283,7 +2283,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.060625" style="0" customWidth="1"/>
   </x:cols>
@@ -2324,7 +2324,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5512</x:v>
+        <x:v>5697</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2332,7 +2332,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5512</x:v>
+        <x:v>5697</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2355,7 +2355,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="27.250625" style="0" customWidth="1"/>
   </x:cols>
@@ -2396,7 +2396,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1841</x:v>
+        <x:v>1842</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2404,7 +2404,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2085</x:v>
+        <x:v>2087</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -2420,7 +2420,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4083</x:v>
+        <x:v>4086</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2443,7 +2443,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.270625" style="0" customWidth="1"/>
   </x:cols>
@@ -2484,7 +2484,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2492,7 +2492,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2415</x:v>
+        <x:v>2435</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -2500,7 +2500,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1027</x:v>
+        <x:v>1040</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -2508,7 +2508,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3525</x:v>
+        <x:v>3559</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2531,7 +2531,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.260625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.500625" style="0" customWidth="1"/>
   </x:cols>
@@ -2580,7 +2580,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1811</x:v>
+        <x:v>1827</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -2588,7 +2588,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -2596,7 +2596,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1954</x:v>
+        <x:v>1971</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2619,7 +2619,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.810625" style="0" customWidth="1"/>
   </x:cols>
@@ -2660,7 +2660,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2220</x:v>
+        <x:v>2242</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2668,7 +2668,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2220</x:v>
+        <x:v>2242</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2691,7 +2691,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.850625" style="0" customWidth="1"/>
   </x:cols>
@@ -2732,7 +2732,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1969</x:v>
+        <x:v>1993</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2740,7 +2740,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1969</x:v>
+        <x:v>1993</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2763,7 +2763,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.940625" style="0" customWidth="1"/>
   </x:cols>
@@ -2804,7 +2804,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>844</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2812,7 +2812,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>844</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2835,7 +2835,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.490625" style="0" customWidth="1"/>
   </x:cols>
@@ -2876,7 +2876,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1452</x:v>
+        <x:v>1457</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2884,7 +2884,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1452</x:v>
+        <x:v>1457</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2907,7 +2907,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.390625" style="0" customWidth="1"/>
   </x:cols>
@@ -2948,7 +2948,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2967</x:v>
+        <x:v>2986</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -2956,7 +2956,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2967</x:v>
+        <x:v>2986</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2979,7 +2979,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.300625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="23.740625" style="0" customWidth="1"/>
@@ -3024,10 +3024,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2280</x:v>
+        <x:v>2292</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>943</x:v>
+        <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -3035,10 +3035,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2280</x:v>
+        <x:v>2292</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>943</x:v>
+        <x:v>949</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3061,7 +3061,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.480625" style="0" customWidth="1"/>
   </x:cols>
@@ -3102,7 +3102,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3110,7 +3110,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3133,7 +3133,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.460625" style="0" customWidth="1"/>
   </x:cols>
@@ -3174,7 +3174,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1629</x:v>
+        <x:v>2195</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3182,7 +3182,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1629</x:v>
+        <x:v>2195</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3205,7 +3205,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.870625" style="0" customWidth="1"/>
   </x:cols>
@@ -3246,7 +3246,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>3053</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3254,7 +3254,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>3053</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3277,7 +3277,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.330625" style="0" customWidth="1"/>
   </x:cols>
@@ -3318,7 +3318,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1538</x:v>
+        <x:v>2072</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3326,7 +3326,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1538</x:v>
+        <x:v>2072</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3349,7 +3349,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.500625" style="0" customWidth="1"/>
   </x:cols>
@@ -3390,7 +3390,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2230</x:v>
+        <x:v>2857</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3398,7 +3398,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2230</x:v>
+        <x:v>2857</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3421,7 +3421,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.700625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.570625" style="0" customWidth="1"/>
@@ -3466,10 +3466,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3448</x:v>
+        <x:v>3474</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1643</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -3477,10 +3477,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>3448</x:v>
+        <x:v>3474</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1643</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3503,7 +3503,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="22.030625" style="0" customWidth="1"/>
   </x:cols>
@@ -3544,7 +3544,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1510</x:v>
+        <x:v>1515</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3552,7 +3552,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1510</x:v>
+        <x:v>1515</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3575,7 +3575,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.240625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.490625" style="0" customWidth="1"/>
@@ -3620,10 +3620,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2621</x:v>
+        <x:v>2660</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1619</x:v>
+        <x:v>1636</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -3631,10 +3631,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -3642,10 +3642,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2924</x:v>
+        <x:v>2967</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1867</x:v>
+        <x:v>1887</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3668,7 +3668,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.250625" style="0" customWidth="1"/>
   </x:cols>
@@ -3709,7 +3709,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1447</x:v>
+        <x:v>1581</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3717,7 +3717,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1447</x:v>
+        <x:v>1581</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3740,7 +3740,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="20.130625" style="0" customWidth="1"/>
   </x:cols>
@@ -3781,7 +3781,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2600</x:v>
+        <x:v>2948</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3789,7 +3789,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2600</x:v>
+        <x:v>2948</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3812,7 +3812,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.530625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="18.100625" style="0" customWidth="1"/>
@@ -3857,10 +3857,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2110</x:v>
+        <x:v>2283</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>737</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -3868,10 +3868,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2110</x:v>
+        <x:v>2283</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>737</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3894,7 +3894,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="13.870625" style="0" customWidth="1"/>
   </x:cols>
@@ -3935,7 +3935,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2670</x:v>
+        <x:v>2942</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -3943,7 +3943,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2670</x:v>
+        <x:v>2942</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3966,7 +3966,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -4007,7 +4007,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1306</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4015,7 +4015,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1306</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4038,7 +4038,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.440625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.150625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="16.520625" style="0" customWidth="1"/>
@@ -4083,10 +4083,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2283</x:v>
+        <x:v>2644</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1577</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -4094,10 +4094,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2283</x:v>
+        <x:v>2644</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1577</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4120,7 +4120,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.010625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.810625" style="0" customWidth="1"/>
   </x:cols>
@@ -4161,7 +4161,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4169,7 +4169,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>735</x:v>
+        <x:v>748</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -4185,7 +4185,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1016</x:v>
+        <x:v>1037</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4208,7 +4208,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.010625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="17.160625" style="0" customWidth="1"/>
   </x:cols>
@@ -4249,7 +4249,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1027</x:v>
+        <x:v>1146</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4257,7 +4257,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -4265,7 +4265,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -4273,7 +4273,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1497</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4296,7 +4296,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.220625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="24.390625" style="0" customWidth="1"/>
   </x:cols>
@@ -4337,7 +4337,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4345,7 +4345,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -4353,7 +4353,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1229</x:v>
+        <x:v>1236</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -4369,7 +4369,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>1063</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -4377,7 +4377,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4064</x:v>
+        <x:v>4160</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4400,7 +4400,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.500625" style="0" customWidth="1"/>
   </x:cols>
@@ -4441,7 +4441,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2199</x:v>
+        <x:v>2201</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4449,7 +4449,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2199</x:v>
+        <x:v>2201</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4472,7 +4472,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="15.740625" style="0" customWidth="1"/>
   </x:cols>
@@ -4513,7 +4513,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1170</x:v>
+        <x:v>1171</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -4521,7 +4521,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>1170</x:v>
+        <x:v>1171</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
